--- a/assets/cdl_table.xlsx
+++ b/assets/cdl_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\WaterBalance_new\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21A5AE3-3736-4DFB-8030-A0B88C4BD5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B59A8-5A3C-4E87-AC5B-340B81BF64D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{D62EEC07-43C4-45B3-9716-F67A70AAB9AF}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="662">
   <si>
     <t>{"value":1,"description":"Corn","color_hint":"FFD200"},</t>
   </si>
@@ -2599,6 +2599,24 @@
   </si>
   <si>
     <t xml:space="preserve">Calif., USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calif. Desert, USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediterranean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medit.; Arid Reg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">March </t>
+  </si>
+  <si>
+    <t>7 days before last -4oC inspring until 7 days afterfirst -4oC in fall</t>
+  </si>
+  <si>
+    <t>Apr(last -4o C)</t>
   </si>
 </sst>
 </file>
@@ -2755,6 +2773,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2763,12 +2787,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3853,9 +3871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24399A3-F261-43AC-A861-F9FB8B59DE12}">
   <dimension ref="A1:Z134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C69" sqref="C69"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3915,7 +3933,7 @@
       <c r="B2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D2" s="9">
@@ -3929,6 +3947,27 @@
       </c>
       <c r="G2" s="9">
         <v>2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>30</v>
+      </c>
+      <c r="I2" s="9">
+        <v>40</v>
+      </c>
+      <c r="J2" s="9">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9">
+        <v>50</v>
+      </c>
+      <c r="L2" s="9">
+        <v>170</v>
+      </c>
+      <c r="M2" t="s">
+        <v>364</v>
+      </c>
+      <c r="N2" t="s">
+        <v>343</v>
       </c>
       <c r="T2" t="e">
         <f>VLOOKUP(C2,Lengths_crop!$A$3:$I$183,3,FALSE)</f>
@@ -4358,8 +4397,41 @@
       <c r="B8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="2" t="s">
         <v>145</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="9">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>35</v>
+      </c>
+      <c r="J8" s="9">
+        <v>35</v>
+      </c>
+      <c r="K8" s="9">
+        <v>35</v>
+      </c>
+      <c r="L8" s="9">
+        <v>140</v>
+      </c>
+      <c r="M8" t="s">
+        <v>412</v>
+      </c>
+      <c r="N8" t="s">
+        <v>450</v>
       </c>
       <c r="O8" t="e">
         <f>VLOOKUP(C8,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -4413,8 +4485,41 @@
       <c r="B9" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="2" t="s">
         <v>147</v>
+      </c>
+      <c r="D9">
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.95</v>
+      </c>
+      <c r="G9">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H9" s="9">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9" s="9">
+        <v>33</v>
+      </c>
+      <c r="K9" s="9">
+        <v>35</v>
+      </c>
+      <c r="L9" s="9">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s">
+        <v>412</v>
+      </c>
+      <c r="N9" t="s">
+        <v>327</v>
       </c>
       <c r="O9" t="e">
         <f>VLOOKUP(C9,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -4468,7 +4573,7 @@
       <c r="B10" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="9">
@@ -4482,6 +4587,27 @@
       </c>
       <c r="G10" s="9">
         <v>1.5</v>
+      </c>
+      <c r="H10" s="9">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9">
+        <v>40</v>
+      </c>
+      <c r="J10" s="9">
+        <v>70</v>
+      </c>
+      <c r="K10" s="9">
+        <v>10</v>
+      </c>
+      <c r="L10" s="9">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s">
+        <v>365</v>
+      </c>
+      <c r="N10" t="s">
+        <v>320</v>
       </c>
       <c r="O10" t="e">
         <f>VLOOKUP(C10,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -4535,7 +4661,7 @@
       <c r="B11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="9">
@@ -4549,6 +4675,27 @@
       </c>
       <c r="G11" s="9">
         <v>1.5</v>
+      </c>
+      <c r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9">
+        <v>40</v>
+      </c>
+      <c r="J11" s="9">
+        <v>50</v>
+      </c>
+      <c r="K11" s="9">
+        <v>50</v>
+      </c>
+      <c r="L11" s="9">
+        <v>170</v>
+      </c>
+      <c r="M11" t="s">
+        <v>364</v>
+      </c>
+      <c r="N11" t="s">
+        <v>343</v>
       </c>
       <c r="O11" t="e">
         <f>VLOOKUP(C11,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -4602,7 +4749,7 @@
       <c r="B12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D12">
@@ -4616,6 +4763,27 @@
       </c>
       <c r="G12">
         <v>0.7</v>
+      </c>
+      <c r="H12" s="9">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12" s="9">
+        <v>250</v>
+      </c>
+      <c r="K12" s="9">
+        <v>30</v>
+      </c>
+      <c r="L12" s="9">
+        <v>360</v>
+      </c>
+      <c r="M12" t="s">
+        <v>364</v>
+      </c>
+      <c r="N12" t="s">
+        <v>459</v>
       </c>
       <c r="O12">
         <f>VLOOKUP(C12,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -5021,8 +5189,41 @@
       <c r="B17" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="2" t="s">
         <v>161</v>
+      </c>
+      <c r="D17">
+        <v>0.7</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>25</v>
+      </c>
+      <c r="I17" s="9">
+        <v>35</v>
+      </c>
+      <c r="J17" s="9">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>165</v>
+      </c>
+      <c r="M17" t="s">
+        <v>368</v>
+      </c>
+      <c r="N17" t="s">
+        <v>485</v>
       </c>
       <c r="O17" t="e">
         <f>VLOOKUP(C17,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -5164,7 +5365,7 @@
       <c r="B19" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D19" s="9">
@@ -5178,6 +5379,27 @@
       </c>
       <c r="G19" s="9">
         <v>0.3</v>
+      </c>
+      <c r="H19" s="9">
+        <v>25</v>
+      </c>
+      <c r="I19" s="9">
+        <v>35</v>
+      </c>
+      <c r="J19" s="9">
+        <v>65</v>
+      </c>
+      <c r="K19">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>165</v>
+      </c>
+      <c r="M19" t="s">
+        <v>368</v>
+      </c>
+      <c r="N19" t="s">
+        <v>485</v>
       </c>
       <c r="O19" t="e">
         <f>VLOOKUP(C19,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -5407,8 +5629,41 @@
       <c r="B22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="2" t="s">
         <v>168</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="9">
+        <v>20</v>
+      </c>
+      <c r="I22" s="9">
+        <v>60</v>
+      </c>
+      <c r="J22" s="9">
+        <v>70</v>
+      </c>
+      <c r="K22">
+        <v>30</v>
+      </c>
+      <c r="L22">
+        <v>180</v>
+      </c>
+      <c r="M22" t="s">
+        <v>483</v>
+      </c>
+      <c r="N22" t="s">
+        <v>379</v>
       </c>
       <c r="O22" t="e">
         <f>VLOOKUP(C22,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -5462,7 +5717,7 @@
       <c r="B23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D23">
@@ -5476,6 +5731,27 @@
       </c>
       <c r="G23">
         <v>0.6</v>
+      </c>
+      <c r="H23" s="9">
+        <v>20</v>
+      </c>
+      <c r="I23" s="9">
+        <v>30</v>
+      </c>
+      <c r="J23" s="9">
+        <v>40</v>
+      </c>
+      <c r="K23" s="9">
+        <v>20</v>
+      </c>
+      <c r="L23" s="9">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>407</v>
+      </c>
+      <c r="N23" t="s">
+        <v>331</v>
       </c>
       <c r="O23" t="e">
         <f>VLOOKUP(C23,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -5532,6 +5808,39 @@
       <c r="C24" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="D24" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.175</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="H24" s="9">
+        <v>45</v>
+      </c>
+      <c r="I24">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>45</v>
+      </c>
+      <c r="L24">
+        <v>225</v>
+      </c>
+      <c r="M24" t="s">
+        <v>465</v>
+      </c>
+      <c r="N24" t="s">
+        <v>320</v>
+      </c>
       <c r="O24" t="e">
         <f>VLOOKUP(C24,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -5672,20 +5981,41 @@
       <c r="B26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26">
         <v>0.35</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26">
         <v>1.075</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>0.35</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26">
         <v>0.6</v>
+      </c>
+      <c r="H26" s="9">
+        <v>20</v>
+      </c>
+      <c r="I26" s="9">
+        <v>30</v>
+      </c>
+      <c r="J26" s="9">
+        <v>40</v>
+      </c>
+      <c r="K26" s="9">
+        <v>20</v>
+      </c>
+      <c r="L26" s="9">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
+        <v>407</v>
+      </c>
+      <c r="N26" t="s">
+        <v>331</v>
       </c>
       <c r="O26" t="e">
         <f>VLOOKUP(C26,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -5739,8 +6069,41 @@
       <c r="B27" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="2" t="s">
         <v>176</v>
+      </c>
+      <c r="D27">
+        <v>0.35</v>
+      </c>
+      <c r="E27">
+        <v>1.075</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27">
+        <v>0.8</v>
+      </c>
+      <c r="H27" s="9">
+        <v>20</v>
+      </c>
+      <c r="I27" s="9">
+        <v>35</v>
+      </c>
+      <c r="J27" s="9">
+        <v>45</v>
+      </c>
+      <c r="K27" s="9">
+        <v>25</v>
+      </c>
+      <c r="L27" s="9">
+        <v>125</v>
+      </c>
+      <c r="M27" t="s">
+        <v>364</v>
+      </c>
+      <c r="N27" t="s">
+        <v>474</v>
       </c>
       <c r="O27" t="e">
         <f>VLOOKUP(C27,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -5970,8 +6333,41 @@
       <c r="B30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="2" t="s">
         <v>181</v>
+      </c>
+      <c r="D30">
+        <v>0.35</v>
+      </c>
+      <c r="E30">
+        <v>1.075</v>
+      </c>
+      <c r="F30">
+        <v>0.25</v>
+      </c>
+      <c r="G30">
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="9">
+        <v>20</v>
+      </c>
+      <c r="I30" s="9">
+        <v>35</v>
+      </c>
+      <c r="J30" s="9">
+        <v>45</v>
+      </c>
+      <c r="K30" s="9">
+        <v>25</v>
+      </c>
+      <c r="L30" s="9">
+        <v>125</v>
+      </c>
+      <c r="M30" t="s">
+        <v>364</v>
+      </c>
+      <c r="N30" t="s">
+        <v>474</v>
       </c>
       <c r="O30" t="e">
         <f>VLOOKUP(C30,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -6377,8 +6773,41 @@
       <c r="B35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="2" t="s">
         <v>188</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="G35" s="9">
+        <v>3</v>
+      </c>
+      <c r="H35" s="9">
+        <v>30</v>
+      </c>
+      <c r="I35" s="9">
+        <v>50</v>
+      </c>
+      <c r="J35" s="9">
+        <v>130</v>
+      </c>
+      <c r="K35" s="9">
+        <v>30</v>
+      </c>
+      <c r="L35" s="9">
+        <v>240</v>
+      </c>
+      <c r="M35" t="s">
+        <v>378</v>
+      </c>
+      <c r="N35" t="s">
+        <v>379</v>
       </c>
       <c r="O35" t="e">
         <f>VLOOKUP(C35,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -6608,7 +7037,7 @@
       <c r="B38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D38" s="9">
@@ -6622,6 +7051,27 @@
       </c>
       <c r="G38" s="9">
         <v>3</v>
+      </c>
+      <c r="H38" s="9">
+        <v>30</v>
+      </c>
+      <c r="I38" s="9">
+        <v>50</v>
+      </c>
+      <c r="J38" s="9">
+        <v>130</v>
+      </c>
+      <c r="K38" s="9">
+        <v>30</v>
+      </c>
+      <c r="L38" s="9">
+        <v>240</v>
+      </c>
+      <c r="M38" t="s">
+        <v>378</v>
+      </c>
+      <c r="N38" t="s">
+        <v>379</v>
       </c>
       <c r="O38" t="e">
         <f>VLOOKUP(C38,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7291,8 +7741,41 @@
       <c r="B46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="2" t="s">
         <v>205</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E46" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="H46" s="9">
+        <v>25</v>
+      </c>
+      <c r="I46" s="9">
+        <v>40</v>
+      </c>
+      <c r="J46" s="9">
+        <v>80</v>
+      </c>
+      <c r="K46" s="9">
+        <v>10</v>
+      </c>
+      <c r="L46" s="9">
+        <v>155</v>
+      </c>
+      <c r="M46" t="s">
+        <v>364</v>
+      </c>
+      <c r="N46" t="s">
+        <v>343</v>
       </c>
       <c r="O46" t="e">
         <f>VLOOKUP(C46,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7434,8 +7917,41 @@
       <c r="B48" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="2" t="s">
         <v>207</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H48" s="9">
+        <v>5</v>
+      </c>
+      <c r="I48" s="9">
+        <v>10</v>
+      </c>
+      <c r="J48" s="9">
+        <v>10</v>
+      </c>
+      <c r="K48" s="9">
+        <v>5</v>
+      </c>
+      <c r="L48" s="9">
+        <v>30</v>
+      </c>
+      <c r="M48" t="s">
+        <v>378</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
       </c>
       <c r="O48" t="e">
         <f>VLOOKUP(C48,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7489,7 +8005,7 @@
       <c r="B49" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D49" s="9">
@@ -7503,6 +8019,27 @@
       </c>
       <c r="G49" s="9">
         <v>0.6</v>
+      </c>
+      <c r="H49" s="9">
+        <v>10</v>
+      </c>
+      <c r="I49" s="9">
+        <v>20</v>
+      </c>
+      <c r="J49" s="9">
+        <v>20</v>
+      </c>
+      <c r="K49" s="9">
+        <v>10</v>
+      </c>
+      <c r="L49" s="9">
+        <v>60</v>
+      </c>
+      <c r="M49" t="s">
+        <v>365</v>
+      </c>
+      <c r="N49" t="s">
+        <v>505</v>
       </c>
       <c r="O49" t="e">
         <f>VLOOKUP(C49,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7556,8 +8093,38 @@
       <c r="B50" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="2" t="s">
         <v>211</v>
+      </c>
+      <c r="D50" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="9">
+        <v>10</v>
+      </c>
+      <c r="I50" s="9">
+        <v>20</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>660</v>
       </c>
       <c r="O50" t="e">
         <f>VLOOKUP(C50,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7611,8 +8178,41 @@
       <c r="B51" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="2" t="s">
         <v>212</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E51" s="9">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="H51" s="9">
+        <v>10</v>
+      </c>
+      <c r="I51" s="9">
+        <v>25</v>
+      </c>
+      <c r="J51" s="9">
+        <v>35</v>
+      </c>
+      <c r="K51" s="9">
+        <v>35</v>
+      </c>
+      <c r="L51" s="9">
+        <v>105</v>
+      </c>
+      <c r="M51" t="s">
+        <v>378</v>
+      </c>
+      <c r="N51" t="s">
+        <v>320</v>
       </c>
       <c r="O51" t="e">
         <f>VLOOKUP(C51,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7666,7 +8266,7 @@
       <c r="B52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="12" t="s">
         <v>214</v>
       </c>
       <c r="O52" t="e">
@@ -7721,7 +8321,7 @@
       <c r="B53" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="12" t="s">
         <v>216</v>
       </c>
       <c r="O53" t="e">
@@ -7776,8 +8376,41 @@
       <c r="B54" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="2" t="s">
         <v>218</v>
+      </c>
+      <c r="D54">
+        <v>0.4</v>
+      </c>
+      <c r="E54">
+        <v>0.95</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>30</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>75</v>
+      </c>
+      <c r="M54" t="s">
+        <v>661</v>
+      </c>
+      <c r="N54" t="s">
+        <v>506</v>
       </c>
       <c r="O54" t="e">
         <f>VLOOKUP(C54,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7831,7 +8464,7 @@
       <c r="B55" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="12" t="s">
         <v>220</v>
       </c>
       <c r="O55" t="e">
@@ -7886,7 +8519,7 @@
       <c r="B56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="2" t="s">
         <v>222</v>
       </c>
       <c r="D56">
@@ -7900,6 +8533,27 @@
       </c>
       <c r="G56">
         <v>4</v>
+      </c>
+      <c r="H56">
+        <v>30</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+      <c r="J56">
+        <v>130</v>
+      </c>
+      <c r="K56">
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <v>240</v>
+      </c>
+      <c r="M56" t="s">
+        <v>378</v>
+      </c>
+      <c r="N56" t="s">
+        <v>379</v>
       </c>
       <c r="O56" t="e">
         <f>VLOOKUP(C56,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -7953,7 +8607,7 @@
       <c r="B57" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="2" t="s">
         <v>224</v>
       </c>
       <c r="D57">
@@ -7967,6 +8621,27 @@
       </c>
       <c r="G57">
         <v>3</v>
+      </c>
+      <c r="H57">
+        <v>30</v>
+      </c>
+      <c r="I57">
+        <v>50</v>
+      </c>
+      <c r="J57">
+        <v>130</v>
+      </c>
+      <c r="K57">
+        <v>30</v>
+      </c>
+      <c r="L57">
+        <v>240</v>
+      </c>
+      <c r="M57" t="s">
+        <v>378</v>
+      </c>
+      <c r="N57" t="s">
+        <v>379</v>
       </c>
       <c r="O57" t="e">
         <f>VLOOKUP(C57,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -8020,7 +8695,7 @@
       <c r="B58" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="2" t="s">
         <v>226</v>
       </c>
       <c r="D58">
@@ -8034,6 +8709,27 @@
       </c>
       <c r="G58">
         <v>4</v>
+      </c>
+      <c r="H58">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>50</v>
+      </c>
+      <c r="J58">
+        <v>130</v>
+      </c>
+      <c r="K58">
+        <v>30</v>
+      </c>
+      <c r="L58">
+        <v>240</v>
+      </c>
+      <c r="M58" t="s">
+        <v>378</v>
+      </c>
+      <c r="N58" t="s">
+        <v>379</v>
       </c>
       <c r="O58" t="e">
         <f>VLOOKUP(C58,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -8175,7 +8871,7 @@
       <c r="B60" s="2">
         <v>7777</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>228</v>
       </c>
       <c r="O60" t="e">
@@ -8230,8 +8926,41 @@
       <c r="B61" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="2" t="s">
         <v>230</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>60</v>
+      </c>
+      <c r="I61">
+        <v>90</v>
+      </c>
+      <c r="J61">
+        <v>120</v>
+      </c>
+      <c r="K61">
+        <v>95</v>
+      </c>
+      <c r="L61">
+        <v>365</v>
+      </c>
+      <c r="M61" t="s">
+        <v>365</v>
+      </c>
+      <c r="N61" t="s">
+        <v>327</v>
       </c>
       <c r="O61" t="e">
         <f>VLOOKUP(C61,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -8373,8 +9102,41 @@
       <c r="B63" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="2" t="s">
         <v>234</v>
+      </c>
+      <c r="D63">
+        <v>0.5</v>
+      </c>
+      <c r="E63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F63">
+        <v>0.65</v>
+      </c>
+      <c r="G63">
+        <v>4.5</v>
+      </c>
+      <c r="H63">
+        <v>20</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>30</v>
+      </c>
+      <c r="K63">
+        <v>30</v>
+      </c>
+      <c r="L63">
+        <v>190</v>
+      </c>
+      <c r="M63" t="s">
+        <v>364</v>
+      </c>
+      <c r="N63" t="s">
+        <v>345</v>
       </c>
       <c r="O63" t="e">
         <f>VLOOKUP(C63,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -8428,7 +9190,7 @@
       <c r="B64" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D64">
@@ -8442,6 +9204,27 @@
       </c>
       <c r="G64" s="2">
         <v>5</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="I64">
+        <v>50</v>
+      </c>
+      <c r="J64">
+        <v>130</v>
+      </c>
+      <c r="K64">
+        <v>30</v>
+      </c>
+      <c r="L64">
+        <v>240</v>
+      </c>
+      <c r="M64" t="s">
+        <v>378</v>
+      </c>
+      <c r="N64" t="s">
+        <v>379</v>
       </c>
       <c r="O64" t="e">
         <f>VLOOKUP(C64,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -8583,7 +9366,7 @@
       <c r="B66" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D66">
@@ -8597,6 +9380,27 @@
       </c>
       <c r="G66">
         <v>4</v>
+      </c>
+      <c r="H66">
+        <v>30</v>
+      </c>
+      <c r="I66">
+        <v>50</v>
+      </c>
+      <c r="J66">
+        <v>130</v>
+      </c>
+      <c r="K66">
+        <v>30</v>
+      </c>
+      <c r="L66">
+        <v>240</v>
+      </c>
+      <c r="M66" t="s">
+        <v>378</v>
+      </c>
+      <c r="N66" t="s">
+        <v>379</v>
       </c>
       <c r="O66" t="e">
         <f>VLOOKUP(C66,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -8650,7 +9454,7 @@
       <c r="B67" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="12" t="s">
         <v>241</v>
       </c>
       <c r="O67" t="e">
@@ -8705,7 +9509,7 @@
       <c r="B68" s="2">
         <v>999999</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="12" t="s">
         <v>242</v>
       </c>
       <c r="O68" t="e">
@@ -8760,8 +9564,17 @@
       <c r="B69" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="13" t="s">
         <v>244</v>
+      </c>
+      <c r="D69">
+        <v>0.9</v>
+      </c>
+      <c r="E69">
+        <v>0.65</v>
+      </c>
+      <c r="F69">
+        <v>1.25</v>
       </c>
       <c r="O69" t="e">
         <f>VLOOKUP(C69,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -8818,6 +9631,15 @@
       <c r="C70" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="D70">
+        <v>0.9</v>
+      </c>
+      <c r="E70">
+        <v>1.05</v>
+      </c>
+      <c r="F70">
+        <v>1.05</v>
+      </c>
       <c r="O70" t="e">
         <f>VLOOKUP(C70,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -8870,7 +9692,7 @@
       <c r="B71" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="12" t="s">
         <v>248</v>
       </c>
       <c r="O71" t="e">
@@ -8925,7 +9747,7 @@
       <c r="B72" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="12" t="s">
         <v>250</v>
       </c>
       <c r="O72" t="e">
@@ -8983,6 +9805,15 @@
       <c r="C73" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="D73">
+        <v>0.9</v>
+      </c>
+      <c r="E73">
+        <v>0.65</v>
+      </c>
+      <c r="F73">
+        <v>1.25</v>
+      </c>
       <c r="O73" t="e">
         <f>VLOOKUP(C73,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -9035,7 +9866,7 @@
       <c r="B74" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="12" t="s">
         <v>253</v>
       </c>
       <c r="O74" t="e">
@@ -9090,7 +9921,7 @@
       <c r="B75" s="2">
         <v>999999</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="12" t="s">
         <v>254</v>
       </c>
       <c r="O75" t="e">
@@ -9145,7 +9976,7 @@
       <c r="B76" s="2">
         <v>999999</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="12" t="s">
         <v>255</v>
       </c>
       <c r="O76" t="e">
@@ -9200,7 +10031,7 @@
       <c r="B77" s="2">
         <v>999999</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="12" t="s">
         <v>256</v>
       </c>
       <c r="O77" t="e">
@@ -9255,7 +10086,7 @@
       <c r="B78" s="2">
         <v>999999</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="12" t="s">
         <v>257</v>
       </c>
       <c r="O78" t="e">
@@ -9310,7 +10141,7 @@
       <c r="B79" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="12" t="s">
         <v>220</v>
       </c>
       <c r="O79" t="e">
@@ -9365,7 +10196,7 @@
       <c r="B80" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="12" t="s">
         <v>258</v>
       </c>
       <c r="O80" t="e">
@@ -9420,7 +10251,7 @@
       <c r="B81" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="12" t="s">
         <v>259</v>
       </c>
       <c r="O81" t="e">
@@ -9533,6 +10364,39 @@
       <c r="C83" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="D83">
+        <v>0.4</v>
+      </c>
+      <c r="E83">
+        <v>0.95</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="I83">
+        <v>30</v>
+      </c>
+      <c r="J83">
+        <v>25</v>
+      </c>
+      <c r="K83">
+        <v>10</v>
+      </c>
+      <c r="L83">
+        <v>75</v>
+      </c>
+      <c r="M83" t="s">
+        <v>661</v>
+      </c>
+      <c r="N83" t="s">
+        <v>506</v>
+      </c>
       <c r="O83" t="e">
         <f>VLOOKUP(C83,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -9588,6 +10452,36 @@
       <c r="C84" s="2" t="s">
         <v>261</v>
       </c>
+      <c r="D84">
+        <v>0.3</v>
+      </c>
+      <c r="E84">
+        <v>0.75</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>20</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
+        <v>660</v>
+      </c>
       <c r="O84" t="e">
         <f>VLOOKUP(C84,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -9643,6 +10537,36 @@
       <c r="C85" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="D85">
+        <v>0.9</v>
+      </c>
+      <c r="E85">
+        <v>1.05</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="I85">
+        <v>30</v>
+      </c>
+      <c r="J85">
+        <v>80</v>
+      </c>
+      <c r="K85">
+        <v>20</v>
+      </c>
+      <c r="L85">
+        <v>140</v>
+      </c>
+      <c r="M85" t="s">
+        <v>412</v>
+      </c>
+      <c r="N85" t="s">
+        <v>521</v>
+      </c>
       <c r="O85" t="e">
         <f>VLOOKUP(C85,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -9698,6 +10622,36 @@
       <c r="C86" s="2" t="s">
         <v>263</v>
       </c>
+      <c r="D86">
+        <v>0.9</v>
+      </c>
+      <c r="E86">
+        <v>1.05</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="H86">
+        <v>180</v>
+      </c>
+      <c r="I86">
+        <v>60</v>
+      </c>
+      <c r="J86">
+        <v>90</v>
+      </c>
+      <c r="K86">
+        <v>35</v>
+      </c>
+      <c r="L86">
+        <v>365</v>
+      </c>
+      <c r="M86" t="s">
+        <v>445</v>
+      </c>
+      <c r="N86" t="s">
+        <v>349</v>
+      </c>
       <c r="O86" t="e">
         <f>VLOOKUP(C86,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -9753,6 +10707,39 @@
       <c r="C87" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="D87">
+        <v>0.7</v>
+      </c>
+      <c r="E87">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="G87" s="2">
+        <v>4</v>
+      </c>
+      <c r="H87" s="2">
+        <v>20</v>
+      </c>
+      <c r="I87" s="2">
+        <v>60</v>
+      </c>
+      <c r="J87" s="2">
+        <v>30</v>
+      </c>
+      <c r="K87" s="2">
+        <v>40</v>
+      </c>
+      <c r="L87" s="2">
+        <v>150</v>
+      </c>
+      <c r="M87" t="s">
+        <v>371</v>
+      </c>
+      <c r="N87" t="s">
+        <v>327</v>
+      </c>
       <c r="O87" t="e">
         <f>VLOOKUP(C87,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -9808,6 +10795,39 @@
       <c r="C88" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="D88">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.85</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H88" s="2">
+        <v>10</v>
+      </c>
+      <c r="I88" s="2">
+        <v>60</v>
+      </c>
+      <c r="J88" s="2">
+        <v>25</v>
+      </c>
+      <c r="K88" s="2">
+        <v>25</v>
+      </c>
+      <c r="L88" s="2">
+        <v>120</v>
+      </c>
+      <c r="M88" t="s">
+        <v>402</v>
+      </c>
+      <c r="N88" t="s">
+        <v>655</v>
+      </c>
       <c r="O88" t="e">
         <f>VLOOKUP(C88,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -9863,6 +10883,39 @@
       <c r="C89" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="D89">
+        <v>0.7</v>
+      </c>
+      <c r="E89">
+        <v>1.05</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H89" s="2">
+        <v>30</v>
+      </c>
+      <c r="I89" s="2">
+        <v>50</v>
+      </c>
+      <c r="J89" s="2">
+        <v>90</v>
+      </c>
+      <c r="K89" s="2">
+        <v>30</v>
+      </c>
+      <c r="L89" s="2">
+        <v>200</v>
+      </c>
+      <c r="M89" t="s">
+        <v>377</v>
+      </c>
+      <c r="N89" t="s">
+        <v>320</v>
+      </c>
       <c r="O89">
         <f>VLOOKUP(C89,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>0.7</v>
@@ -9918,6 +10971,39 @@
       <c r="C90" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="D90">
+        <v>0.5</v>
+      </c>
+      <c r="E90">
+        <v>0.95</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G90">
+        <v>0.5</v>
+      </c>
+      <c r="H90">
+        <v>90</v>
+      </c>
+      <c r="I90">
+        <v>30</v>
+      </c>
+      <c r="J90">
+        <v>200</v>
+      </c>
+      <c r="K90">
+        <v>45</v>
+      </c>
+      <c r="L90">
+        <v>365</v>
+      </c>
+      <c r="M90" t="s">
+        <v>371</v>
+      </c>
+      <c r="N90" t="s">
+        <v>327</v>
+      </c>
       <c r="O90">
         <f>VLOOKUP(C90,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>0.5</v>
@@ -9970,8 +11056,20 @@
       <c r="B91" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="12" t="s">
         <v>269</v>
+      </c>
+      <c r="D91">
+        <v>0.7</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0.3</v>
       </c>
       <c r="O91">
         <f>VLOOKUP(C91,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -10028,6 +11126,39 @@
       <c r="C92" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="D92">
+        <v>0.5</v>
+      </c>
+      <c r="E92">
+        <v>0.85</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H92" s="2">
+        <v>10</v>
+      </c>
+      <c r="I92" s="2">
+        <v>60</v>
+      </c>
+      <c r="J92" s="2">
+        <v>25</v>
+      </c>
+      <c r="K92" s="2">
+        <v>25</v>
+      </c>
+      <c r="L92" s="2">
+        <v>120</v>
+      </c>
+      <c r="M92" t="s">
+        <v>402</v>
+      </c>
+      <c r="N92" t="s">
+        <v>655</v>
+      </c>
       <c r="O92" t="e">
         <f>VLOOKUP(C92,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10080,7 +11211,7 @@
       <c r="B93" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="12" t="s">
         <v>271</v>
       </c>
       <c r="O93" t="e">
@@ -10138,6 +11269,39 @@
       <c r="C94" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="D94">
+        <v>0.65</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G94" s="2">
+        <v>4</v>
+      </c>
+      <c r="H94" s="2">
+        <v>30</v>
+      </c>
+      <c r="I94" s="2">
+        <v>90</v>
+      </c>
+      <c r="J94" s="2">
+        <v>60</v>
+      </c>
+      <c r="K94" s="2">
+        <v>90</v>
+      </c>
+      <c r="L94" s="2">
+        <v>270</v>
+      </c>
+      <c r="M94" t="s">
+        <v>659</v>
+      </c>
+      <c r="N94" t="s">
+        <v>327</v>
+      </c>
       <c r="O94" t="e">
         <f>VLOOKUP(C94,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10193,6 +11357,39 @@
       <c r="C95" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="D95">
+        <v>0.8</v>
+      </c>
+      <c r="E95">
+        <v>0.8</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G95" s="2">
+        <v>3</v>
+      </c>
+      <c r="H95">
+        <v>60</v>
+      </c>
+      <c r="I95">
+        <v>90</v>
+      </c>
+      <c r="J95">
+        <v>120</v>
+      </c>
+      <c r="K95">
+        <v>95</v>
+      </c>
+      <c r="L95">
+        <v>365</v>
+      </c>
+      <c r="M95" t="s">
+        <v>365</v>
+      </c>
+      <c r="N95" t="s">
+        <v>327</v>
+      </c>
       <c r="O95" t="e">
         <f>VLOOKUP(C95,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10248,6 +11445,39 @@
       <c r="C96" s="2" t="s">
         <v>275</v>
       </c>
+      <c r="D96">
+        <v>0.5</v>
+      </c>
+      <c r="E96">
+        <v>1.05</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H96" s="2">
+        <v>15</v>
+      </c>
+      <c r="I96" s="2">
+        <v>40</v>
+      </c>
+      <c r="J96" s="2">
+        <v>65</v>
+      </c>
+      <c r="K96" s="2">
+        <v>15</v>
+      </c>
+      <c r="L96" s="2">
+        <v>135</v>
+      </c>
+      <c r="M96" t="s">
+        <v>402</v>
+      </c>
+      <c r="N96" t="s">
+        <v>656</v>
+      </c>
       <c r="O96" t="e">
         <f>VLOOKUP(C96,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10303,6 +11533,39 @@
       <c r="C97" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="D97">
+        <v>0.7</v>
+      </c>
+      <c r="E97">
+        <v>1.05</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H97" s="2">
+        <v>35</v>
+      </c>
+      <c r="I97" s="2">
+        <v>45</v>
+      </c>
+      <c r="J97" s="2">
+        <v>40</v>
+      </c>
+      <c r="K97" s="2">
+        <v>15</v>
+      </c>
+      <c r="L97" s="2">
+        <v>135</v>
+      </c>
+      <c r="M97" t="s">
+        <v>357</v>
+      </c>
+      <c r="N97" t="s">
+        <v>320</v>
+      </c>
       <c r="O97">
         <f>VLOOKUP(C97,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>0.7</v>
@@ -10358,6 +11621,39 @@
       <c r="C98" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="D98">
+        <v>0.6</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G98" s="2">
+        <v>3</v>
+      </c>
+      <c r="H98" s="2">
+        <v>30</v>
+      </c>
+      <c r="I98" s="2">
+        <v>50</v>
+      </c>
+      <c r="J98" s="2">
+        <v>130</v>
+      </c>
+      <c r="K98" s="2">
+        <v>30</v>
+      </c>
+      <c r="L98" s="2">
+        <v>240</v>
+      </c>
+      <c r="M98" t="s">
+        <v>659</v>
+      </c>
+      <c r="N98" t="s">
+        <v>320</v>
+      </c>
       <c r="O98" t="e">
         <f>VLOOKUP(C98,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10413,6 +11709,39 @@
       <c r="C99" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="D99">
+        <v>0.6</v>
+      </c>
+      <c r="E99">
+        <v>1.05</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H99" s="2">
+        <v>30</v>
+      </c>
+      <c r="I99" s="2">
+        <v>40</v>
+      </c>
+      <c r="J99" s="2">
+        <v>110</v>
+      </c>
+      <c r="K99" s="2">
+        <v>30</v>
+      </c>
+      <c r="L99" s="2">
+        <v>210</v>
+      </c>
+      <c r="M99" t="s">
+        <v>377</v>
+      </c>
+      <c r="N99" t="s">
+        <v>370</v>
+      </c>
       <c r="O99" t="e">
         <f>VLOOKUP(C99,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10468,6 +11797,39 @@
       <c r="C100" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="D100">
+        <v>0.8</v>
+      </c>
+      <c r="E100">
+        <v>0.8</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G100" s="2">
+        <v>3</v>
+      </c>
+      <c r="H100" s="2">
+        <v>30</v>
+      </c>
+      <c r="I100" s="2">
+        <v>50</v>
+      </c>
+      <c r="J100" s="2">
+        <v>130</v>
+      </c>
+      <c r="K100" s="2">
+        <v>30</v>
+      </c>
+      <c r="L100" s="2">
+        <v>240</v>
+      </c>
+      <c r="M100" t="s">
+        <v>659</v>
+      </c>
+      <c r="N100" t="s">
+        <v>320</v>
+      </c>
       <c r="O100" t="e">
         <f>VLOOKUP(C100,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10520,8 +11882,20 @@
       <c r="B101" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="12" t="s">
         <v>280</v>
+      </c>
+      <c r="D101">
+        <v>0.8</v>
+      </c>
+      <c r="E101">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G101" s="2">
+        <v>3</v>
       </c>
       <c r="O101" t="e">
         <f>VLOOKUP(C101,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -10578,6 +11952,39 @@
       <c r="C102" s="2" t="s">
         <v>281</v>
       </c>
+      <c r="D102">
+        <v>0.4</v>
+      </c>
+      <c r="E102">
+        <v>1.05</v>
+      </c>
+      <c r="F102" s="2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H102" s="2">
+        <v>20</v>
+      </c>
+      <c r="I102" s="2">
+        <v>30</v>
+      </c>
+      <c r="J102" s="2">
+        <v>30</v>
+      </c>
+      <c r="K102" s="2">
+        <v>20</v>
+      </c>
+      <c r="L102" s="2">
+        <v>110</v>
+      </c>
+      <c r="M102" t="s">
+        <v>659</v>
+      </c>
+      <c r="N102" t="s">
+        <v>327</v>
+      </c>
       <c r="O102" t="e">
         <f>VLOOKUP(C102,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10630,7 +12037,7 @@
       <c r="B103" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="12" t="s">
         <v>282</v>
       </c>
       <c r="O103" t="e">
@@ -10685,8 +12092,20 @@
       <c r="B104" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="12" t="s">
         <v>283</v>
+      </c>
+      <c r="D104">
+        <v>0.4</v>
+      </c>
+      <c r="E104">
+        <v>0.85</v>
+      </c>
+      <c r="F104" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0.2</v>
       </c>
       <c r="O104">
         <f>VLOOKUP(C104,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -10743,6 +12162,39 @@
       <c r="C105" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="D105">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>0.95</v>
+      </c>
+      <c r="F105" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H105" s="2">
+        <v>25</v>
+      </c>
+      <c r="I105">
+        <v>35</v>
+      </c>
+      <c r="J105">
+        <v>25</v>
+      </c>
+      <c r="K105">
+        <v>15</v>
+      </c>
+      <c r="L105">
+        <v>100</v>
+      </c>
+      <c r="M105" t="s">
+        <v>409</v>
+      </c>
+      <c r="N105" t="s">
+        <v>658</v>
+      </c>
       <c r="O105" t="e">
         <f>VLOOKUP(C105,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10795,8 +12247,20 @@
       <c r="B106" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="12" t="s">
         <v>285</v>
+      </c>
+      <c r="D106">
+        <v>0.5</v>
+      </c>
+      <c r="E106">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F106" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G106" s="2">
+        <v>3</v>
       </c>
       <c r="O106" t="e">
         <f>VLOOKUP(C106,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -10853,6 +12317,39 @@
       <c r="C107" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="D107">
+        <v>0.5</v>
+      </c>
+      <c r="E107">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H107">
+        <v>20</v>
+      </c>
+      <c r="I107">
+        <v>30</v>
+      </c>
+      <c r="J107">
+        <v>35</v>
+      </c>
+      <c r="K107">
+        <v>15</v>
+      </c>
+      <c r="L107">
+        <v>100</v>
+      </c>
+      <c r="M107" t="s">
+        <v>497</v>
+      </c>
+      <c r="N107" t="s">
+        <v>327</v>
+      </c>
       <c r="O107" t="e">
         <f>VLOOKUP(C107,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -10920,6 +12417,27 @@
       <c r="G108" s="9">
         <v>1.5</v>
       </c>
+      <c r="H108" s="9">
+        <v>30</v>
+      </c>
+      <c r="I108" s="9">
+        <v>30</v>
+      </c>
+      <c r="J108" s="9">
+        <v>30</v>
+      </c>
+      <c r="K108" s="9">
+        <v>103</v>
+      </c>
+      <c r="L108" s="9">
+        <v>110</v>
+      </c>
+      <c r="M108" t="s">
+        <v>364</v>
+      </c>
+      <c r="N108" t="s">
+        <v>654</v>
+      </c>
       <c r="O108" t="e">
         <f>VLOOKUP(C108,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -11063,6 +12581,39 @@
       <c r="C110" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="D110">
+        <v>0.7</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H110" s="2">
+        <v>25</v>
+      </c>
+      <c r="I110" s="2">
+        <v>35</v>
+      </c>
+      <c r="J110" s="2">
+        <v>30</v>
+      </c>
+      <c r="K110" s="2">
+        <v>10</v>
+      </c>
+      <c r="L110" s="2">
+        <v>100</v>
+      </c>
+      <c r="M110" t="s">
+        <v>368</v>
+      </c>
+      <c r="N110" t="s">
+        <v>370</v>
+      </c>
       <c r="O110">
         <f>VLOOKUP(C110,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>0.7</v>
@@ -11130,6 +12681,27 @@
       <c r="G111" s="9">
         <v>1.5</v>
       </c>
+      <c r="H111" s="9">
+        <v>30</v>
+      </c>
+      <c r="I111" s="9">
+        <v>30</v>
+      </c>
+      <c r="J111" s="9">
+        <v>30</v>
+      </c>
+      <c r="K111" s="9">
+        <v>103</v>
+      </c>
+      <c r="L111" s="9">
+        <v>110</v>
+      </c>
+      <c r="M111" t="s">
+        <v>364</v>
+      </c>
+      <c r="N111" t="s">
+        <v>654</v>
+      </c>
       <c r="O111" t="e">
         <f>VLOOKUP(C111,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -11185,6 +12757,39 @@
       <c r="C112" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="D112">
+        <v>0.5</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H112" s="2">
+        <v>20</v>
+      </c>
+      <c r="I112" s="2">
+        <v>30</v>
+      </c>
+      <c r="J112" s="2">
+        <v>30</v>
+      </c>
+      <c r="K112" s="2">
+        <v>20</v>
+      </c>
+      <c r="L112" s="2">
+        <v>100</v>
+      </c>
+      <c r="M112" t="s">
+        <v>406</v>
+      </c>
+      <c r="N112" t="s">
+        <v>657</v>
+      </c>
       <c r="O112" t="e">
         <f>VLOOKUP(C112,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -11240,6 +12845,39 @@
       <c r="C113" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="D113">
+        <v>0.7</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H113" s="2">
+        <v>25</v>
+      </c>
+      <c r="I113" s="2">
+        <v>35</v>
+      </c>
+      <c r="J113" s="2">
+        <v>30</v>
+      </c>
+      <c r="K113" s="2">
+        <v>10</v>
+      </c>
+      <c r="L113" s="2">
+        <v>100</v>
+      </c>
+      <c r="M113" t="s">
+        <v>368</v>
+      </c>
+      <c r="N113" t="s">
+        <v>370</v>
+      </c>
       <c r="O113" t="e">
         <f>VLOOKUP(C113,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -11295,6 +12933,39 @@
       <c r="C114" s="2" t="s">
         <v>294</v>
       </c>
+      <c r="D114">
+        <v>0.7</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H114" s="2">
+        <v>25</v>
+      </c>
+      <c r="I114" s="2">
+        <v>35</v>
+      </c>
+      <c r="J114" s="2">
+        <v>30</v>
+      </c>
+      <c r="K114" s="2">
+        <v>10</v>
+      </c>
+      <c r="L114" s="2">
+        <v>100</v>
+      </c>
+      <c r="M114" t="s">
+        <v>368</v>
+      </c>
+      <c r="N114" t="s">
+        <v>370</v>
+      </c>
       <c r="O114" t="e">
         <f>VLOOKUP(C114,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -11350,6 +13021,39 @@
       <c r="C115" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="D115" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="E115" s="9">
+        <v>1.175</v>
+      </c>
+      <c r="F115" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G115" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="H115" s="9">
+        <v>45</v>
+      </c>
+      <c r="I115">
+        <v>90</v>
+      </c>
+      <c r="J115">
+        <v>45</v>
+      </c>
+      <c r="K115">
+        <v>45</v>
+      </c>
+      <c r="L115">
+        <v>225</v>
+      </c>
+      <c r="M115" t="s">
+        <v>465</v>
+      </c>
+      <c r="N115" t="s">
+        <v>320</v>
+      </c>
       <c r="O115" t="e">
         <f>VLOOKUP(C115,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -11845,6 +13549,39 @@
       <c r="C121" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="D121" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="E121" s="9">
+        <v>1.175</v>
+      </c>
+      <c r="F121" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="G121" s="9">
+        <v>1.35</v>
+      </c>
+      <c r="H121" s="9">
+        <v>45</v>
+      </c>
+      <c r="I121">
+        <v>90</v>
+      </c>
+      <c r="J121">
+        <v>45</v>
+      </c>
+      <c r="K121">
+        <v>45</v>
+      </c>
+      <c r="L121">
+        <v>225</v>
+      </c>
+      <c r="M121" t="s">
+        <v>465</v>
+      </c>
+      <c r="N121" t="s">
+        <v>320</v>
+      </c>
       <c r="O121" t="e">
         <f>VLOOKUP(C121,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -12161,7 +13898,7 @@
       <c r="B125" s="2">
         <v>99</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="12" t="s">
         <v>305</v>
       </c>
       <c r="O125" t="e">
@@ -12219,6 +13956,39 @@
       <c r="C126" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="D126" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E126" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="F126" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H126" s="9">
+        <v>40</v>
+      </c>
+      <c r="I126" s="9">
+        <v>60</v>
+      </c>
+      <c r="J126" s="9">
+        <v>50</v>
+      </c>
+      <c r="K126" s="9">
+        <v>15</v>
+      </c>
+      <c r="L126" s="9">
+        <v>165</v>
+      </c>
+      <c r="M126" t="s">
+        <v>357</v>
+      </c>
+      <c r="N126" t="s">
+        <v>320</v>
+      </c>
       <c r="O126">
         <f>VLOOKUP(C126,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>0.7</v>
@@ -12274,6 +14044,39 @@
       <c r="C127" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="D127" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="E127" s="9">
+        <v>1.05</v>
+      </c>
+      <c r="F127" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="G127" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H127" s="9">
+        <v>35</v>
+      </c>
+      <c r="I127" s="9">
+        <v>50</v>
+      </c>
+      <c r="J127" s="9">
+        <v>40</v>
+      </c>
+      <c r="K127" s="9">
+        <v>15</v>
+      </c>
+      <c r="L127" s="9">
+        <v>140</v>
+      </c>
+      <c r="M127" t="s">
+        <v>357</v>
+      </c>
+      <c r="N127" t="s">
+        <v>320</v>
+      </c>
       <c r="O127">
         <f>VLOOKUP(C127,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>0.7</v>
@@ -12329,6 +14132,39 @@
       <c r="C128" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="D128">
+        <v>0.7</v>
+      </c>
+      <c r="E128">
+        <v>1.05</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H128" s="2">
+        <v>25</v>
+      </c>
+      <c r="I128" s="2">
+        <v>40</v>
+      </c>
+      <c r="J128" s="2">
+        <v>95</v>
+      </c>
+      <c r="K128" s="2">
+        <v>20</v>
+      </c>
+      <c r="L128" s="2">
+        <v>180</v>
+      </c>
+      <c r="M128" t="s">
+        <v>362</v>
+      </c>
+      <c r="N128" t="s">
+        <v>363</v>
+      </c>
       <c r="O128">
         <f>VLOOKUP(C128,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>0.7</v>
@@ -12384,6 +14220,39 @@
       <c r="C129" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="D129">
+        <v>0.7</v>
+      </c>
+      <c r="E129">
+        <v>0.9</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H129" s="2">
+        <v>10</v>
+      </c>
+      <c r="I129" s="2">
+        <v>10</v>
+      </c>
+      <c r="J129" s="2">
+        <v>15</v>
+      </c>
+      <c r="K129" s="2">
+        <v>5</v>
+      </c>
+      <c r="L129" s="2">
+        <v>40</v>
+      </c>
+      <c r="M129" t="s">
+        <v>389</v>
+      </c>
+      <c r="N129" t="s">
+        <v>370</v>
+      </c>
       <c r="O129" t="e">
         <f>VLOOKUP(C129,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -12436,8 +14305,20 @@
       <c r="B130" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="12" t="s">
         <v>310</v>
+      </c>
+      <c r="D130">
+        <v>0.5</v>
+      </c>
+      <c r="E130">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0.6</v>
       </c>
       <c r="O130" t="e">
         <f>VLOOKUP(C130,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -12494,6 +14375,39 @@
       <c r="C131" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="D131">
+        <v>0.6</v>
+      </c>
+      <c r="E131">
+        <v>1.05</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H131" s="2">
+        <v>30</v>
+      </c>
+      <c r="I131" s="2">
+        <v>40</v>
+      </c>
+      <c r="J131" s="2">
+        <v>40</v>
+      </c>
+      <c r="K131" s="2">
+        <v>20</v>
+      </c>
+      <c r="L131" s="2">
+        <v>130</v>
+      </c>
+      <c r="M131" t="s">
+        <v>377</v>
+      </c>
+      <c r="N131" t="s">
+        <v>370</v>
+      </c>
       <c r="O131" t="e">
         <f>VLOOKUP(C131,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
         <v>#N/A</v>
@@ -12546,7 +14460,7 @@
       <c r="B132" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="12" t="s">
         <v>312</v>
       </c>
       <c r="O132" t="e">
@@ -12601,8 +14515,20 @@
       <c r="B133" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="12" t="s">
         <v>313</v>
+      </c>
+      <c r="D133">
+        <v>0.3</v>
+      </c>
+      <c r="E133">
+        <v>1.05</v>
+      </c>
+      <c r="F133" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1.5</v>
       </c>
       <c r="O133" t="e">
         <f>VLOOKUP(C133,crop_coefficients!$A$3:$F$165,3,FALSE)</f>
@@ -12755,10 +14681,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="5" t="s">
         <v>351</v>
       </c>
@@ -12782,23 +14708,23 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6">
         <v>35</v>
       </c>
@@ -12822,10 +14748,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="6">
         <v>40</v>
       </c>
@@ -12849,10 +14775,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="6">
         <v>20</v>
       </c>
@@ -12876,8 +14802,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="6">
         <v>30</v>
       </c>
@@ -12901,8 +14827,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="6">
         <v>30</v>
       </c>
@@ -12926,10 +14852,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="6">
         <v>35</v>
       </c>
@@ -12953,10 +14879,10 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="6">
         <v>25</v>
       </c>
@@ -12980,8 +14906,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="6">
         <v>25</v>
       </c>
@@ -13005,8 +14931,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="6">
         <v>30</v>
       </c>
@@ -13030,10 +14956,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="6">
         <v>20</v>
       </c>
@@ -13057,8 +14983,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="6">
         <v>25</v>
       </c>
@@ -13082,8 +15008,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="6">
         <v>30</v>
       </c>
@@ -13107,10 +15033,10 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="6">
         <v>20</v>
       </c>
@@ -13134,8 +15060,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="6">
         <v>30</v>
       </c>
@@ -13159,8 +15085,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="6">
         <v>25</v>
       </c>
@@ -13184,8 +15110,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="6">
         <v>35</v>
       </c>
@@ -13209,10 +15135,10 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="6">
         <v>15</v>
       </c>
@@ -13236,8 +15162,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="6">
         <v>20</v>
       </c>
@@ -13261,10 +15187,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="6">
         <v>25</v>
       </c>
@@ -13288,8 +15214,8 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="6">
         <v>20</v>
       </c>
@@ -13313,8 +15239,8 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="6">
         <v>30</v>
       </c>
@@ -13338,10 +15264,10 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="6">
         <v>20</v>
       </c>
@@ -13365,10 +15291,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="6">
         <v>20</v>
       </c>
@@ -13392,8 +15318,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="6">
         <v>20</v>
       </c>
@@ -13417,10 +15343,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="6">
         <v>5</v>
       </c>
@@ -13444,8 +15370,8 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="6">
         <v>10</v>
       </c>
@@ -13469,23 +15395,23 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="6">
         <v>30</v>
       </c>
@@ -13509,8 +15435,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="6">
         <v>30</v>
       </c>
@@ -13534,10 +15460,10 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="6" t="s">
         <v>394</v>
       </c>
@@ -13561,8 +15487,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="6">
         <v>30</v>
       </c>
@@ -13586,10 +15512,10 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="6">
         <v>30</v>
       </c>
@@ -13613,8 +15539,8 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="6">
         <v>35</v>
       </c>
@@ -13638,8 +15564,8 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="6">
         <v>25</v>
       </c>
@@ -13663,8 +15589,8 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="6">
         <v>35</v>
       </c>
@@ -13688,8 +15614,8 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="6">
         <v>30</v>
       </c>
@@ -13713,23 +15639,23 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="6">
         <v>30</v>
       </c>
@@ -13753,8 +15679,8 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="6">
         <v>10</v>
       </c>
@@ -13778,10 +15704,10 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="6">
         <v>20</v>
       </c>
@@ -13805,8 +15731,8 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="6">
         <v>25</v>
       </c>
@@ -13830,10 +15756,10 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="6">
         <v>20</v>
       </c>
@@ -13857,8 +15783,8 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="6">
         <v>25</v>
       </c>
@@ -13882,10 +15808,10 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="12"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="6">
         <v>25</v>
       </c>
@@ -13909,8 +15835,8 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="6">
         <v>20</v>
       </c>
@@ -13934,10 +15860,10 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="6">
         <v>25</v>
       </c>
@@ -13961,8 +15887,8 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="6">
         <v>30</v>
       </c>
@@ -13986,8 +15912,8 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="6">
         <v>15</v>
       </c>
@@ -14011,8 +15937,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="6">
         <v>30</v>
       </c>
@@ -14036,10 +15962,10 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="6">
         <v>20</v>
       </c>
@@ -14063,8 +15989,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="6">
         <v>10</v>
       </c>
@@ -14088,23 +16014,23 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="6">
         <v>15</v>
       </c>
@@ -14128,8 +16054,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="6">
         <v>25</v>
       </c>
@@ -14153,10 +16079,10 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="6">
         <v>20</v>
       </c>
@@ -14180,10 +16106,10 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="6">
         <v>150</v>
       </c>
@@ -14205,10 +16131,10 @@
       <c r="I58" s="7"/>
     </row>
     <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="6">
         <v>25</v>
       </c>
@@ -14232,8 +16158,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="6">
         <v>25</v>
       </c>
@@ -14257,8 +16183,8 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="6">
         <v>30</v>
       </c>
@@ -14282,8 +16208,8 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="6">
         <v>45</v>
       </c>
@@ -14307,8 +16233,8 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="6">
         <v>30</v>
       </c>
@@ -14332,10 +16258,10 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="6">
         <v>20</v>
       </c>
@@ -14359,8 +16285,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="6">
         <v>15</v>
       </c>
@@ -14384,10 +16310,10 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="6">
         <v>30</v>
       </c>
@@ -14411,8 +16337,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="6">
         <v>25</v>
       </c>
@@ -14436,8 +16362,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="6">
         <v>25</v>
       </c>
@@ -14461,8 +16387,8 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="6">
         <v>50</v>
       </c>
@@ -14486,8 +16412,8 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="6">
         <v>25</v>
       </c>
@@ -14511,8 +16437,8 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="6">
         <v>45</v>
       </c>
@@ -14536,8 +16462,8 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="6">
         <v>35</v>
       </c>
@@ -14561,23 +16487,23 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="B74" s="12"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="6">
         <v>20</v>
       </c>
@@ -14601,8 +16527,8 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="6">
         <v>15</v>
       </c>
@@ -14626,10 +16552,10 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="B76" s="12"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="6">
         <v>20</v>
       </c>
@@ -14653,8 +16579,8 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
       <c r="C77" s="6">
         <v>15</v>
       </c>
@@ -14678,8 +16604,8 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="6">
         <v>25</v>
       </c>
@@ -14703,10 +16629,10 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="6">
         <v>15</v>
       </c>
@@ -14730,8 +16656,8 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="6">
         <v>20</v>
       </c>
@@ -14809,10 +16735,10 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="14"/>
       <c r="C83" s="6">
         <v>20</v>
       </c>
@@ -14836,10 +16762,10 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="6">
         <v>25</v>
       </c>
@@ -14863,8 +16789,8 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="6">
         <v>35</v>
       </c>
@@ -14888,8 +16814,8 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="6">
         <v>35</v>
       </c>
@@ -14913,10 +16839,10 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B87" s="12"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="6">
         <v>20</v>
       </c>
@@ -14940,8 +16866,8 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
       <c r="C88" s="6">
         <v>25</v>
       </c>
@@ -14965,10 +16891,10 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B89" s="12"/>
+      <c r="B89" s="14"/>
       <c r="C89" s="6">
         <v>15</v>
       </c>
@@ -14992,8 +16918,8 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="6">
         <v>20</v>
       </c>
@@ -15017,8 +16943,8 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="6">
         <v>35</v>
       </c>
@@ -15042,10 +16968,10 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B92" s="12"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="6">
         <v>15</v>
       </c>
@@ -15069,8 +16995,8 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="6">
         <v>20</v>
       </c>
@@ -15094,8 +17020,8 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
       <c r="C94" s="6">
         <v>20</v>
       </c>
@@ -15119,23 +17045,23 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="6">
         <v>40</v>
       </c>
@@ -15159,8 +17085,8 @@
       </c>
     </row>
     <row r="97" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
       <c r="C97" s="6">
         <v>20</v>
       </c>
@@ -15184,10 +17110,10 @@
       </c>
     </row>
     <row r="98" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B98" s="12"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="6">
         <v>50</v>
       </c>
@@ -15211,8 +17137,8 @@
       </c>
     </row>
     <row r="99" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="6">
         <v>90</v>
       </c>
@@ -15236,23 +17162,23 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="6">
         <v>30</v>
       </c>
@@ -15276,8 +17202,8 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
       <c r="C102" s="6">
         <v>45</v>
       </c>
@@ -15301,8 +17227,8 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="6">
         <v>30</v>
       </c>
@@ -15326,8 +17252,8 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="6">
         <v>30</v>
       </c>
@@ -15351,10 +17277,10 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B105" s="12"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="6">
         <v>25</v>
       </c>
@@ -15378,8 +17304,8 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="6">
         <v>30</v>
       </c>
@@ -15403,23 +17329,23 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="B108" s="12"/>
+      <c r="B108" s="14"/>
       <c r="C108" s="6">
         <v>25</v>
       </c>
@@ -15443,8 +17369,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="6">
         <v>20</v>
       </c>
@@ -15468,10 +17394,10 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B110" s="12"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="6">
         <v>20</v>
       </c>
@@ -15495,8 +17421,8 @@
       </c>
     </row>
     <row r="111" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="6">
         <v>25</v>
       </c>
@@ -15520,8 +17446,8 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="6">
         <v>35</v>
       </c>
@@ -15545,10 +17471,10 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="6">
         <v>20</v>
       </c>
@@ -15572,10 +17498,10 @@
       </c>
     </row>
     <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="12"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="6">
         <v>25</v>
       </c>
@@ -15599,23 +17525,23 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
     </row>
     <row r="116" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="14"/>
       <c r="C116" s="6">
         <v>15</v>
       </c>
@@ -15639,8 +17565,8 @@
       </c>
     </row>
     <row r="117" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="6">
         <v>20</v>
       </c>
@@ -15664,8 +17590,8 @@
       </c>
     </row>
     <row r="118" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="6">
         <v>15</v>
       </c>
@@ -15689,8 +17615,8 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
       <c r="C119" s="6">
         <v>40</v>
       </c>
@@ -15712,8 +17638,8 @@
       <c r="I119" s="7"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
       <c r="C120" s="6">
         <v>40</v>
       </c>
@@ -15735,8 +17661,8 @@
       <c r="I120" s="7"/>
     </row>
     <row r="121" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="6">
         <v>20</v>
       </c>
@@ -15760,10 +17686,10 @@
       </c>
     </row>
     <row r="122" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B122" s="12"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="6">
         <v>202</v>
       </c>
@@ -15787,8 +17713,8 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
       <c r="C123" s="6">
         <v>30</v>
       </c>
@@ -15812,8 +17738,8 @@
       </c>
     </row>
     <row r="124" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
       <c r="C124" s="6">
         <v>160</v>
       </c>
@@ -15837,10 +17763,10 @@
       </c>
     </row>
     <row r="125" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="B125" s="12"/>
+      <c r="B125" s="14"/>
       <c r="C125" s="6">
         <v>20</v>
       </c>
@@ -15864,8 +17790,8 @@
       </c>
     </row>
     <row r="126" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="6">
         <v>25</v>
       </c>
@@ -15889,10 +17815,10 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="14" t="s">
         <v>486</v>
       </c>
-      <c r="B127" s="12"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="6">
         <v>30</v>
       </c>
@@ -15916,8 +17842,8 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
       <c r="C128" s="6">
         <v>25</v>
       </c>
@@ -15941,8 +17867,8 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
       <c r="C129" s="6">
         <v>20</v>
       </c>
@@ -15966,8 +17892,8 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="6">
         <v>20</v>
       </c>
@@ -15991,8 +17917,8 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="6">
         <v>30</v>
       </c>
@@ -16016,8 +17942,8 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="6">
         <v>30</v>
       </c>
@@ -16041,10 +17967,10 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="14" t="s">
         <v>492</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="6">
         <v>20</v>
       </c>
@@ -16068,8 +17994,8 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="6">
         <v>20</v>
       </c>
@@ -16093,8 +18019,8 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="6">
         <v>20</v>
       </c>
@@ -16118,8 +18044,8 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="6">
         <v>30</v>
       </c>
@@ -16143,8 +18069,8 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="6">
         <v>20</v>
       </c>
@@ -16168,10 +18094,10 @@
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="6">
         <v>15</v>
       </c>
@@ -16195,8 +18121,8 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="6">
         <v>20</v>
       </c>
@@ -16220,10 +18146,10 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B140" s="12"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="6">
         <v>20</v>
       </c>
@@ -16247,8 +18173,8 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="6">
         <v>20</v>
       </c>
@@ -16272,10 +18198,10 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B142" s="12"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="6">
         <v>30</v>
       </c>
@@ -16299,8 +18225,8 @@
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="6">
         <v>30</v>
       </c>
@@ -16324,23 +18250,23 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
     </row>
     <row r="145" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B145" s="12"/>
+      <c r="B145" s="14"/>
       <c r="C145" s="6">
         <v>10</v>
       </c>
@@ -16362,10 +18288,10 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="B146" s="12"/>
+      <c r="B146" s="14"/>
       <c r="C146" s="6">
         <v>10</v>
       </c>
@@ -16389,8 +18315,8 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="6">
         <v>10</v>
       </c>
@@ -16412,10 +18338,10 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="6">
         <v>5</v>
       </c>
@@ -16439,8 +18365,8 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
       <c r="C149" s="6">
         <v>5</v>
       </c>
@@ -16464,10 +18390,10 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="B150" s="12"/>
+      <c r="B150" s="14"/>
       <c r="C150" s="6">
         <v>10</v>
       </c>
@@ -16491,10 +18417,10 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="B151" s="12"/>
+      <c r="B151" s="14"/>
       <c r="C151" s="6">
         <v>10</v>
       </c>
@@ -16518,10 +18444,10 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="102" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="B152" s="12"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="6">
         <v>10</v>
       </c>
@@ -16543,10 +18469,10 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="B153" s="12"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="6">
         <v>25</v>
       </c>
@@ -16570,10 +18496,10 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B154" s="12"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="6">
         <v>3</v>
       </c>
@@ -16597,23 +18523,23 @@
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B155" s="14"/>
-      <c r="C155" s="14"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
     </row>
     <row r="156" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="14" t="s">
         <v>514</v>
       </c>
-      <c r="B156" s="12"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="6">
         <v>35</v>
       </c>
@@ -16635,8 +18561,8 @@
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
       <c r="C157" s="6">
         <v>50</v>
       </c>
@@ -16658,8 +18584,8 @@
       </c>
     </row>
     <row r="158" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="6">
         <v>75</v>
       </c>
@@ -16681,10 +18607,10 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="B159" s="12"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="6">
         <v>25</v>
       </c>
@@ -16706,8 +18632,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="6">
         <v>30</v>
       </c>
@@ -16729,8 +18655,8 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="6">
         <v>35</v>
       </c>
@@ -16752,23 +18678,23 @@
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B162" s="14"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="B163" s="12"/>
+      <c r="B163" s="14"/>
       <c r="C163" s="6">
         <v>120</v>
       </c>
@@ -16792,10 +18718,10 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="B164" s="12"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="6">
         <v>120</v>
       </c>
@@ -16819,10 +18745,10 @@
       </c>
     </row>
     <row r="165" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B165" s="12"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="6">
         <v>60</v>
       </c>
@@ -16844,23 +18770,23 @@
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B166" s="14"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
     </row>
     <row r="167" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B167" s="12"/>
+      <c r="B167" s="14"/>
       <c r="C167" s="6">
         <v>20</v>
       </c>
@@ -16884,8 +18810,8 @@
       </c>
     </row>
     <row r="168" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
       <c r="C168" s="6">
         <v>20</v>
       </c>
@@ -16909,8 +18835,8 @@
       </c>
     </row>
     <row r="169" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
       <c r="C169" s="6">
         <v>20</v>
       </c>
@@ -16934,8 +18860,8 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
       <c r="C170" s="6">
         <v>30</v>
       </c>
@@ -16959,10 +18885,10 @@
       </c>
     </row>
     <row r="171" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B171" s="12"/>
+      <c r="B171" s="14"/>
       <c r="C171" s="6">
         <v>25</v>
       </c>
@@ -16986,23 +18912,23 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B172" s="14"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B173" s="12"/>
+      <c r="B173" s="14"/>
       <c r="C173" s="6">
         <v>60</v>
       </c>
@@ -17026,10 +18952,10 @@
       </c>
     </row>
     <row r="174" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="B174" s="12"/>
+      <c r="B174" s="14"/>
       <c r="C174" s="6">
         <v>20</v>
       </c>
@@ -17053,8 +18979,8 @@
       </c>
     </row>
     <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
       <c r="C175" s="6">
         <v>20</v>
       </c>
@@ -17078,8 +19004,8 @@
       </c>
     </row>
     <row r="176" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
       <c r="C176" s="6">
         <v>30</v>
       </c>
@@ -17103,10 +19029,10 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="12" t="s">
+      <c r="A177" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B177" s="12"/>
+      <c r="B177" s="14"/>
       <c r="C177" s="6">
         <v>30</v>
       </c>
@@ -17130,10 +19056,10 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="12" t="s">
+      <c r="A178" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="B178" s="12"/>
+      <c r="B178" s="14"/>
       <c r="C178" s="6">
         <v>20</v>
       </c>
@@ -17157,10 +19083,10 @@
       </c>
     </row>
     <row r="179" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="12" t="s">
+      <c r="A179" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B179" s="12"/>
+      <c r="B179" s="14"/>
       <c r="C179" s="6">
         <v>20</v>
       </c>
@@ -17184,23 +19110,23 @@
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="14" t="s">
+      <c r="A180" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="B180" s="14"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
     </row>
     <row r="181" spans="1:9" ht="51" x14ac:dyDescent="0.25">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="B181" s="12"/>
+      <c r="B181" s="14"/>
       <c r="C181" s="6">
         <v>10</v>
       </c>
@@ -17224,8 +19150,8 @@
       </c>
     </row>
     <row r="182" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
       <c r="C182" s="6">
         <v>180</v>
       </c>
@@ -17249,10 +19175,10 @@
       </c>
     </row>
     <row r="183" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B183" s="12"/>
+      <c r="B183" s="14"/>
       <c r="C183" s="6">
         <v>180</v>
       </c>
@@ -17390,10 +19316,10 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
         <v>523</v>
@@ -17406,10 +19332,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5">
         <v>0.7</v>
       </c>
@@ -17422,10 +19348,10 @@
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5">
         <v>0.7</v>
       </c>
@@ -17440,10 +19366,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5">
         <v>0.7</v>
       </c>
@@ -17458,10 +19384,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5">
         <v>0.7</v>
       </c>
@@ -17476,10 +19402,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5">
         <v>0.7</v>
       </c>
@@ -17494,10 +19420,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5">
         <v>0.7</v>
       </c>
@@ -17512,10 +19438,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5">
         <v>0.7</v>
       </c>
@@ -17530,10 +19456,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="5">
         <v>0.7</v>
       </c>
@@ -17548,10 +19474,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>0.7</v>
       </c>
@@ -17566,10 +19492,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -17630,10 +19556,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="B16" s="12"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="5">
         <v>0.7</v>
       </c>
@@ -17648,10 +19574,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5">
         <v>0.7</v>
       </c>
@@ -17666,10 +19592,10 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="5">
         <v>0.6</v>
       </c>
@@ -17682,10 +19608,10 @@
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="5">
         <v>0.6</v>
       </c>
@@ -17700,10 +19626,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="5">
         <v>0.6</v>
       </c>
@@ -17718,10 +19644,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5">
         <v>0.6</v>
       </c>
@@ -17736,10 +19662,10 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="5">
         <v>0.5</v>
       </c>
@@ -17752,10 +19678,10 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="9">
         <v>0.5</v>
       </c>
@@ -17770,10 +19696,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -17816,10 +19742,10 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="9">
         <v>0.5</v>
       </c>
@@ -17834,10 +19760,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="9">
         <v>0.5</v>
       </c>
@@ -17852,10 +19778,10 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="14" t="s">
         <v>534</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="9">
         <v>0.5</v>
       </c>
@@ -17870,10 +19796,10 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="9">
         <v>0.4</v>
       </c>
@@ -17888,10 +19814,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="5">
         <v>0.5</v>
       </c>
@@ -17904,10 +19830,10 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="B32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="5">
         <v>0.5</v>
       </c>
@@ -17922,10 +19848,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="B33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -17968,10 +19894,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="B36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="9">
         <v>0.5</v>
       </c>
@@ -17986,10 +19912,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B37" s="12"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="9">
         <v>0.5</v>
       </c>
@@ -18004,10 +19930,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="9">
         <v>0.5</v>
       </c>
@@ -18022,10 +19948,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="9">
         <v>0.5</v>
       </c>
@@ -18040,10 +19966,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="9">
         <v>0.35</v>
       </c>
@@ -18058,10 +19984,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="5">
         <v>0.4</v>
       </c>
@@ -18074,10 +20000,10 @@
       <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="14" t="s">
         <v>544</v>
       </c>
-      <c r="B42" s="12"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="9">
         <v>0.5</v>
       </c>
@@ -18092,10 +20018,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="B43" s="12"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="9">
         <v>0.4</v>
       </c>
@@ -18110,10 +20036,10 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="14" t="s">
         <v>546</v>
       </c>
-      <c r="B44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="9">
         <v>0.4</v>
       </c>
@@ -18128,10 +20054,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -18174,10 +20100,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="B48" s="12"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="9">
         <v>0.4</v>
       </c>
@@ -18192,10 +20118,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="B49" s="12"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="9">
         <v>0.4</v>
       </c>
@@ -18210,10 +20136,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="B50" s="12"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="9">
         <v>0.4</v>
       </c>
@@ -18228,10 +20154,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="B51" s="12"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="9">
         <v>0.4</v>
       </c>
@@ -18246,10 +20172,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="12"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -18292,10 +20218,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="12"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="9">
         <v>0.5</v>
       </c>
@@ -18310,10 +20236,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B56" s="14"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="5">
         <v>0.5</v>
       </c>
@@ -18326,10 +20252,10 @@
       <c r="F56" s="7"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="9">
         <v>0.5</v>
       </c>
@@ -18344,10 +20270,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="14"/>
       <c r="C58" s="9">
         <v>0.5</v>
       </c>
@@ -18362,10 +20288,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="9">
         <v>0.6</v>
       </c>
@@ -18380,10 +20306,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="9">
         <v>0.4</v>
       </c>
@@ -18398,10 +20324,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="14"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="5">
         <v>0.35</v>
       </c>
@@ -18410,10 +20336,10 @@
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="12"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="5">
         <v>0.35</v>
       </c>
@@ -18428,10 +20354,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="B63" s="12"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="5">
         <v>0.35</v>
       </c>
@@ -18446,10 +20372,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="14" t="s">
         <v>560</v>
       </c>
-      <c r="B64" s="12"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="5">
         <v>0.35</v>
       </c>
@@ -18464,10 +20390,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="5">
         <v>0.35</v>
       </c>
@@ -18480,10 +20406,10 @@
       <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="14" t="s">
         <v>562</v>
       </c>
-      <c r="B66" s="12"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="5">
         <v>0.35</v>
       </c>
@@ -18498,10 +20424,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="B67" s="12"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="5">
         <v>0.35</v>
       </c>
@@ -18516,10 +20442,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="5">
         <v>0.35</v>
       </c>
@@ -18534,10 +20460,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="14" t="s">
         <v>475</v>
       </c>
-      <c r="B69" s="12"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="5">
         <v>0.35</v>
       </c>
@@ -18552,10 +20478,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="12"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="5">
         <v>0.35</v>
       </c>
@@ -18570,10 +20496,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="B71" s="14"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="5">
         <v>0.3</v>
       </c>
@@ -18586,10 +20512,10 @@
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B72" s="12"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="5">
         <v>0.3</v>
       </c>
@@ -18604,10 +20530,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B73" s="12"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="5">
         <v>0.3</v>
       </c>
@@ -18622,10 +20548,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="12"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="5">
         <v>0.3</v>
       </c>
@@ -18640,10 +20566,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="12"/>
+      <c r="B75" s="14"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -18686,10 +20612,10 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="14" t="s">
         <v>566</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="9">
         <v>0.7</v>
       </c>
@@ -18704,10 +20630,10 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="9">
         <v>0.7</v>
       </c>
@@ -18722,10 +20648,10 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="9">
         <v>0.7</v>
       </c>
@@ -18740,10 +20666,10 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="12"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="9"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -18786,10 +20712,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="12"/>
+      <c r="B84" s="14"/>
       <c r="C84" s="9">
         <v>1.05</v>
       </c>
@@ -18804,20 +20730,20 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B86" s="12"/>
+      <c r="B86" s="14"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -18878,10 +20804,10 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="B90" s="12"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -18924,10 +20850,10 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="B93" s="12"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -18970,10 +20896,10 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="B96" s="12"/>
+      <c r="B96" s="14"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -18998,10 +20924,10 @@
       </c>
     </row>
     <row r="98" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="B98" s="12"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -19044,10 +20970,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -19090,10 +21016,10 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="B104" s="12"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -19136,10 +21062,10 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="B107" s="14"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="5">
         <v>0.4</v>
       </c>
@@ -19154,20 +21080,20 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="B109" s="12"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -19210,10 +21136,10 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="B112" s="12"/>
+      <c r="B112" s="14"/>
       <c r="C112" s="9">
         <v>1</v>
       </c>
@@ -19228,10 +21154,10 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="B113" s="12"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
@@ -19274,10 +21200,10 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="B116" s="12"/>
+      <c r="B116" s="14"/>
       <c r="C116" s="9">
         <v>0.9</v>
       </c>
@@ -19292,10 +21218,10 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="B117" s="12"/>
+      <c r="B117" s="14"/>
       <c r="C117" s="9">
         <v>0.95</v>
       </c>
@@ -19310,10 +21236,10 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B118" s="12"/>
+      <c r="B118" s="14"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
@@ -19356,10 +21282,10 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="B121" s="12"/>
+      <c r="B121" s="14"/>
       <c r="C121" s="9">
         <v>0.95</v>
       </c>
@@ -19374,10 +21300,10 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="14" t="s">
         <v>605</v>
       </c>
-      <c r="B122" s="12"/>
+      <c r="B122" s="14"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -19420,20 +21346,20 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="B126" s="12"/>
+      <c r="B126" s="14"/>
       <c r="C126" s="9">
         <v>0.3</v>
       </c>
@@ -19448,10 +21374,10 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="B127" s="12"/>
+      <c r="B127" s="14"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -19494,10 +21420,10 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B130" s="12"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="9">
         <v>0.3</v>
       </c>
@@ -19512,20 +21438,20 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="14" t="s">
+      <c r="A131" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
     </row>
     <row r="132" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="B132" s="12"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="9">
         <v>0.4</v>
       </c>
@@ -19540,10 +21466,10 @@
       </c>
     </row>
     <row r="133" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="B133" s="12"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -19622,10 +21548,10 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
@@ -19704,10 +21630,10 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="B143" s="12"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="9">
         <v>0.6</v>
       </c>
@@ -19722,10 +21648,10 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="B144" s="12"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
@@ -19786,10 +21712,10 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="B148" s="12"/>
+      <c r="B148" s="14"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
@@ -19850,10 +21776,10 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="14" t="s">
         <v>631</v>
       </c>
-      <c r="B152" s="12"/>
+      <c r="B152" s="14"/>
       <c r="C152" s="9">
         <v>1</v>
       </c>
@@ -19868,10 +21794,10 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="B153" s="12"/>
+      <c r="B153" s="14"/>
       <c r="C153" s="9">
         <v>0.4</v>
       </c>
@@ -19886,10 +21812,10 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="B154" s="12"/>
+      <c r="B154" s="14"/>
       <c r="C154" s="9">
         <v>0.65</v>
       </c>
@@ -19904,10 +21830,10 @@
       </c>
     </row>
     <row r="155" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="14" t="s">
         <v>634</v>
       </c>
-      <c r="B155" s="12"/>
+      <c r="B155" s="14"/>
       <c r="C155" s="9">
         <v>0.4</v>
       </c>
@@ -19922,10 +21848,10 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="14" t="s">
         <v>635</v>
       </c>
-      <c r="B156" s="12"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="9">
         <v>0.5</v>
       </c>
@@ -19940,20 +21866,20 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
     </row>
     <row r="158" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="14" t="s">
         <v>637</v>
       </c>
-      <c r="B158" s="12"/>
+      <c r="B158" s="14"/>
       <c r="C158" s="9">
         <v>0.3</v>
       </c>
@@ -19968,10 +21894,10 @@
       </c>
     </row>
     <row r="159" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="B159" s="12"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="9">
         <v>0.6</v>
       </c>
@@ -19986,10 +21912,10 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="14" t="s">
         <v>639</v>
       </c>
-      <c r="B160" s="12"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="9">
         <v>1.05</v>
       </c>
@@ -20004,10 +21930,10 @@
       </c>
     </row>
     <row r="161" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="B161" s="12"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="9">
         <v>1</v>
       </c>
@@ -20022,10 +21948,10 @@
       </c>
     </row>
     <row r="162" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="B162" s="12"/>
+      <c r="B162" s="14"/>
       <c r="C162" s="9">
         <v>0.9</v>
       </c>
@@ -20040,20 +21966,20 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="B163" s="14"/>
-      <c r="C163" s="14"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="B164" s="12"/>
+      <c r="B164" s="14"/>
       <c r="C164" s="9">
         <v>0.9</v>
       </c>
@@ -20068,10 +21994,10 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="B165" s="12"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="9">
         <v>0.9</v>
       </c>
